--- a/Planilla+Historias+de+Usuario.xlsx
+++ b/Planilla+Historias+de+Usuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexelias/Desktop/servimoto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexelias/Desktop/git/curso-git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B77DEB0-8B38-5B48-BFEB-66F3E852241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FBA24E-2BF5-9D42-B1D7-57E99BA7E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="60" windowWidth="28660" windowHeight="17820" xr2:uid="{5304E9B6-1898-4DC8-97BF-E7D654E6BCD4}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="28660" windowHeight="17500" xr2:uid="{5304E9B6-1898-4DC8-97BF-E7D654E6BCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>EPIC13</t>
+  </si>
+  <si>
+    <t>efefwef</t>
   </si>
 </sst>
 </file>
@@ -366,11 +369,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +692,7 @@
   <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -704,13 +707,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="37" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
@@ -723,13 +726,13 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -1037,7 +1040,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1053,8 +1056,11 @@
       <c r="F33" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="H33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1063,14 +1069,14 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1098,7 +1104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1107,14 +1113,14 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
@@ -1129,14 +1135,14 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
@@ -1151,14 +1157,14 @@
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>70</v>
       </c>
@@ -1173,14 +1179,14 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>76</v>
       </c>
@@ -1195,14 +1201,14 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
